--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ebi3-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ebi3-Il6st.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.143382</v>
+        <v>10.03073166666667</v>
       </c>
       <c r="H2">
-        <v>9.430146000000001</v>
+        <v>30.092195</v>
       </c>
       <c r="I2">
-        <v>0.3901511487518625</v>
+        <v>0.5703560915538793</v>
       </c>
       <c r="J2">
-        <v>0.3901511487518625</v>
+        <v>0.5703560915538795</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>86.40747066666665</v>
+        <v>108.845309</v>
       </c>
       <c r="N2">
-        <v>259.222412</v>
+        <v>326.535927</v>
       </c>
       <c r="O2">
-        <v>0.3380062309947018</v>
+        <v>0.3930063530400584</v>
       </c>
       <c r="P2">
-        <v>0.3380062309947017</v>
+        <v>0.3930063530400583</v>
       </c>
       <c r="Q2">
-        <v>271.611687959128</v>
+        <v>1091.798087754418</v>
       </c>
       <c r="R2">
-        <v>2444.505191632152</v>
+        <v>9826.182789789766</v>
       </c>
       <c r="S2">
-        <v>0.1318735193078703</v>
+        <v>0.2241535674757718</v>
       </c>
       <c r="T2">
-        <v>0.1318735193078703</v>
+        <v>0.2241535674757718</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.143382</v>
+        <v>10.03073166666667</v>
       </c>
       <c r="H3">
-        <v>9.430146000000001</v>
+        <v>30.092195</v>
       </c>
       <c r="I3">
-        <v>0.3901511487518625</v>
+        <v>0.5703560915538793</v>
       </c>
       <c r="J3">
-        <v>0.3901511487518625</v>
+        <v>0.5703560915538795</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>375.008064</v>
       </c>
       <c r="O3">
-        <v>0.4889818797969518</v>
+        <v>0.4513455929560021</v>
       </c>
       <c r="P3">
-        <v>0.4889818797969517</v>
+        <v>0.451345592956002</v>
       </c>
       <c r="Q3">
-        <v>392.931199410816</v>
+        <v>1253.868420940053</v>
       </c>
       <c r="R3">
-        <v>3536.380794697344</v>
+        <v>11284.81578846048</v>
       </c>
       <c r="S3">
-        <v>0.1907768421216259</v>
+        <v>0.2574277083384535</v>
       </c>
       <c r="T3">
-        <v>0.1907768421216259</v>
+        <v>0.2574277083384535</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.143382</v>
+        <v>10.03073166666667</v>
       </c>
       <c r="H4">
-        <v>9.430146000000001</v>
+        <v>30.092195</v>
       </c>
       <c r="I4">
-        <v>0.3901511487518625</v>
+        <v>0.5703560915538793</v>
       </c>
       <c r="J4">
-        <v>0.3901511487518625</v>
+        <v>0.5703560915538795</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.01290066666667</v>
+        <v>18.88973866666667</v>
       </c>
       <c r="N4">
-        <v>45.038702</v>
+        <v>56.669216</v>
       </c>
       <c r="O4">
-        <v>0.05872702824751719</v>
+        <v>0.06820493571538706</v>
       </c>
       <c r="P4">
-        <v>0.05872702824751717</v>
+        <v>0.06820493571538705</v>
       </c>
       <c r="Q4">
-        <v>47.19128172338801</v>
+        <v>189.4778998187911</v>
       </c>
       <c r="R4">
-        <v>424.7215355104921</v>
+        <v>1705.30109836912</v>
       </c>
       <c r="S4">
-        <v>0.02291241753355191</v>
+        <v>0.03890110055931176</v>
       </c>
       <c r="T4">
-        <v>0.0229124175335519</v>
+        <v>0.03890110055931176</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.143382</v>
+        <v>10.03073166666667</v>
       </c>
       <c r="H5">
-        <v>9.430146000000001</v>
+        <v>30.092195</v>
       </c>
       <c r="I5">
-        <v>0.3901511487518625</v>
+        <v>0.5703560915538793</v>
       </c>
       <c r="J5">
-        <v>0.3901511487518625</v>
+        <v>0.5703560915538795</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.29188266666667</v>
+        <v>13.37928666666667</v>
       </c>
       <c r="N5">
-        <v>36.875648</v>
+        <v>40.13786</v>
       </c>
       <c r="O5">
-        <v>0.04808302916326276</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="P5">
-        <v>0.04808302916326274</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="Q5">
-        <v>38.638082720512</v>
+        <v>134.2040344447445</v>
       </c>
       <c r="R5">
-        <v>347.742744484608</v>
+        <v>1207.8363100027</v>
       </c>
       <c r="S5">
-        <v>0.01875964906351627</v>
+        <v>0.02755300034670635</v>
       </c>
       <c r="T5">
-        <v>0.01875964906351626</v>
+        <v>0.02755300034670636</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.143382</v>
+        <v>10.03073166666667</v>
       </c>
       <c r="H6">
-        <v>9.430146000000001</v>
+        <v>30.092195</v>
       </c>
       <c r="I6">
-        <v>0.3901511487518625</v>
+        <v>0.5703560915538793</v>
       </c>
       <c r="J6">
-        <v>0.3901511487518625</v>
+        <v>0.5703560915538795</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.92374966666667</v>
+        <v>10.83857433333333</v>
       </c>
       <c r="N6">
-        <v>50.771249</v>
+        <v>32.515723</v>
       </c>
       <c r="O6">
-        <v>0.06620183179756665</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="P6">
-        <v>0.06620183179756664</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="Q6">
-        <v>53.19781007470601</v>
+        <v>108.7188307868872</v>
       </c>
       <c r="R6">
-        <v>478.780290672354</v>
+        <v>978.469477081985</v>
       </c>
       <c r="S6">
-        <v>0.02582872072529821</v>
+        <v>0.02232071483363607</v>
       </c>
       <c r="T6">
-        <v>0.0258287207252982</v>
+        <v>0.02232071483363607</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.913449333333333</v>
+        <v>7.556056333333333</v>
       </c>
       <c r="H7">
-        <v>14.740348</v>
+        <v>22.668169</v>
       </c>
       <c r="I7">
-        <v>0.6098488512481375</v>
+        <v>0.4296439084461207</v>
       </c>
       <c r="J7">
-        <v>0.6098488512481375</v>
+        <v>0.4296439084461207</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>86.40747066666665</v>
+        <v>108.845309</v>
       </c>
       <c r="N7">
-        <v>259.222412</v>
+        <v>326.535927</v>
       </c>
       <c r="O7">
-        <v>0.3380062309947018</v>
+        <v>0.3930063530400584</v>
       </c>
       <c r="P7">
-        <v>0.3380062309947017</v>
+        <v>0.3930063530400583</v>
       </c>
       <c r="Q7">
-        <v>424.5587291421529</v>
+        <v>822.4412864230736</v>
       </c>
       <c r="R7">
-        <v>3821.028562279376</v>
+        <v>7401.971577807663</v>
       </c>
       <c r="S7">
-        <v>0.2061327116868315</v>
+        <v>0.1688527855642866</v>
       </c>
       <c r="T7">
-        <v>0.2061327116868314</v>
+        <v>0.1688527855642866</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.913449333333333</v>
+        <v>7.556056333333333</v>
       </c>
       <c r="H8">
-        <v>14.740348</v>
+        <v>22.668169</v>
       </c>
       <c r="I8">
-        <v>0.6098488512481375</v>
+        <v>0.4296439084461207</v>
       </c>
       <c r="J8">
-        <v>0.6098488512481375</v>
+        <v>0.4296439084461207</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>375.008064</v>
       </c>
       <c r="O8">
-        <v>0.4889818797969518</v>
+        <v>0.4513455929560021</v>
       </c>
       <c r="P8">
-        <v>0.4889818797969517</v>
+        <v>0.451345592956002</v>
       </c>
       <c r="Q8">
-        <v>614.1943740184746</v>
+        <v>944.5273523460907</v>
       </c>
       <c r="R8">
-        <v>5527.749366166272</v>
+        <v>8500.746171114815</v>
       </c>
       <c r="S8">
-        <v>0.2982050376753259</v>
+        <v>0.1939178846175486</v>
       </c>
       <c r="T8">
-        <v>0.2982050376753259</v>
+        <v>0.1939178846175486</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.913449333333333</v>
+        <v>7.556056333333333</v>
       </c>
       <c r="H9">
-        <v>14.740348</v>
+        <v>22.668169</v>
       </c>
       <c r="I9">
-        <v>0.6098488512481375</v>
+        <v>0.4296439084461207</v>
       </c>
       <c r="J9">
-        <v>0.6098488512481375</v>
+        <v>0.4296439084461207</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.01290066666667</v>
+        <v>18.88973866666667</v>
       </c>
       <c r="N9">
-        <v>45.038702</v>
+        <v>56.669216</v>
       </c>
       <c r="O9">
-        <v>0.05872702824751719</v>
+        <v>0.06820493571538706</v>
       </c>
       <c r="P9">
-        <v>0.05872702824751717</v>
+        <v>0.06820493571538705</v>
       </c>
       <c r="Q9">
-        <v>73.76512677203289</v>
+        <v>142.7319294872782</v>
       </c>
       <c r="R9">
-        <v>663.8861409482961</v>
+        <v>1284.587365385504</v>
       </c>
       <c r="S9">
-        <v>0.03581461071396528</v>
+        <v>0.02930383515607531</v>
       </c>
       <c r="T9">
-        <v>0.03581461071396527</v>
+        <v>0.0293038351560753</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.913449333333333</v>
+        <v>7.556056333333333</v>
       </c>
       <c r="H10">
-        <v>14.740348</v>
+        <v>22.668169</v>
       </c>
       <c r="I10">
-        <v>0.6098488512481375</v>
+        <v>0.4296439084461207</v>
       </c>
       <c r="J10">
-        <v>0.6098488512481375</v>
+        <v>0.4296439084461207</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.29188266666667</v>
+        <v>13.37928666666667</v>
       </c>
       <c r="N10">
-        <v>36.875648</v>
+        <v>40.13786</v>
       </c>
       <c r="O10">
-        <v>0.04808302916326276</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="P10">
-        <v>0.04808302916326274</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="Q10">
-        <v>60.39554269394488</v>
+        <v>101.0946437531489</v>
       </c>
       <c r="R10">
-        <v>543.559884245504</v>
+        <v>909.85179377834</v>
       </c>
       <c r="S10">
-        <v>0.02932338009974648</v>
+        <v>0.02075541742023798</v>
       </c>
       <c r="T10">
-        <v>0.02932338009974648</v>
+        <v>0.02075541742023798</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.913449333333333</v>
+        <v>7.556056333333333</v>
       </c>
       <c r="H11">
-        <v>14.740348</v>
+        <v>22.668169</v>
       </c>
       <c r="I11">
-        <v>0.6098488512481375</v>
+        <v>0.4296439084461207</v>
       </c>
       <c r="J11">
-        <v>0.6098488512481375</v>
+        <v>0.4296439084461207</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.92374966666667</v>
+        <v>10.83857433333333</v>
       </c>
       <c r="N11">
-        <v>50.771249</v>
+        <v>32.515723</v>
       </c>
       <c r="O11">
-        <v>0.06620183179756665</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="P11">
-        <v>0.06620183179756664</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="Q11">
-        <v>83.15398651718355</v>
+        <v>81.89687823568745</v>
       </c>
       <c r="R11">
-        <v>748.3858786546521</v>
+        <v>737.071904121187</v>
       </c>
       <c r="S11">
-        <v>0.04037311107226844</v>
+        <v>0.01681398568797222</v>
       </c>
       <c r="T11">
-        <v>0.04037311107226844</v>
+        <v>0.01681398568797222</v>
       </c>
     </row>
   </sheetData>
